--- a/lab8_cw32.xlsx
+++ b/lab8_cw32.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\Fizyka Techniczna\3. semestr\Laboratorium Fizyczne\lab8 ćwiczenie 32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C7E9D4-3BE0-4940-AB03-27E24DE3DAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D16FE1-F6B4-4C97-B849-2627097C5186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -220,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -230,33 +230,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +247,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:M80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:I12"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,396 +561,391 @@
     <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C1" s="3"/>
       <c r="D1" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="2:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="L2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2">
+      <c r="M2" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="G3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="16"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="G3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
         <v>40.6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="15">
+      <c r="D4" s="10"/>
+      <c r="E4" s="6">
         <v>0.2</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="16"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="L4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="M4" s="2">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
         <v>30.2</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="15">
+      <c r="D5" s="10"/>
+      <c r="E5" s="6">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
         <v>20.6</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="15">
+      <c r="D6" s="10"/>
+      <c r="E6" s="6">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="13">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="6">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
         <v>18.899999999999999</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="15">
+      <c r="D7" s="10"/>
+      <c r="E7" s="6">
         <v>0.35</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="13">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="6">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
         <v>15.2</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="15">
+      <c r="D8" s="10"/>
+      <c r="E8" s="6">
         <v>0.4</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="13">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>90</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
         <v>12.5</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="15">
+      <c r="D9" s="10"/>
+      <c r="E9" s="6">
         <v>0.45</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="13">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>190</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="15">
+      <c r="D10" s="10"/>
+      <c r="E10" s="6">
         <v>0.5</v>
       </c>
-      <c r="G10" s="17">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1.3</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="18">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="13">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11">
+        <v>290</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
         <v>8.5</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="15">
+      <c r="D11" s="10"/>
+      <c r="E11" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>7</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="6">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="7">
         <v>0.7</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="15">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="13">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="15">
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>2</v>
+      </c>
+      <c r="C15" s="10">
+        <v>80.5</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10">
+        <v>60</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>2</v>
+      </c>
+      <c r="C17" s="10">
+        <v>47</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>37.4</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="10">
+        <v>30.3</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="10">
+        <v>24.7</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="6">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="10">
+        <v>20.3</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>16.7</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>2</v>
+      </c>
+      <c r="C23" s="10">
+        <v>13.6</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="6">
         <v>0.6</v>
       </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="15">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>5.6</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="15">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>11.1</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="6">
         <v>0.65</v>
       </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>90</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="16">
-        <v>0.7</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>190</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="15">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="13">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="7">
-        <v>80.5</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="14">
-        <v>1</v>
-      </c>
-      <c r="H15" s="9">
-        <v>290</v>
-      </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="16">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="13">
-        <v>2</v>
-      </c>
-      <c r="C16" s="4">
-        <v>60</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="13">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4">
-        <v>47</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="15">
-        <v>0.3</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="13">
-        <v>2</v>
-      </c>
-      <c r="C18" s="4">
-        <v>37.4</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="15">
-        <v>0.35</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="13">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4">
-        <v>30.3</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="15">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="13">
-        <v>2</v>
-      </c>
-      <c r="C20" s="4">
-        <v>24.7</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="15">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="13">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="13">
-        <v>2</v>
-      </c>
-      <c r="C22" s="4">
-        <v>16.7</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="15">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="13">
-        <v>2</v>
-      </c>
-      <c r="C23" s="4">
-        <v>13.6</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="15">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="13">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <v>11.1</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="15">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="14">
-        <v>2</v>
-      </c>
-      <c r="C25" s="9">
+      <c r="C25" s="11">
         <v>9</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="16">
+      <c r="D25" s="11"/>
+      <c r="E25" s="7">
         <v>0.7</v>
       </c>
       <c r="H25" s="1"/>
@@ -964,14 +953,14 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="13">
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="C26" s="12">
+      <c r="C26" s="14">
         <v>146</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="15">
+      <c r="D26" s="14"/>
+      <c r="E26" s="6">
         <v>0.2</v>
       </c>
       <c r="H26" s="1"/>
@@ -979,14 +968,14 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="13">
+      <c r="B27" s="4">
         <v>3</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="10">
         <v>110</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="15">
+      <c r="D27" s="10"/>
+      <c r="E27" s="6">
         <v>0.25</v>
       </c>
       <c r="H27" s="1"/>
@@ -994,52 +983,52 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="13">
+      <c r="B28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="10">
         <v>86</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="15">
+      <c r="D28" s="10"/>
+      <c r="E28" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="13">
+      <c r="B29" s="4">
         <v>3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="10">
         <v>69</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="15">
+      <c r="D29" s="10"/>
+      <c r="E29" s="6">
         <v>0.35</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="13">
+      <c r="B30" s="4">
         <v>3</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="10">
         <v>55.3</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="15">
+      <c r="D30" s="10"/>
+      <c r="E30" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="13">
+      <c r="B31" s="4">
         <v>3</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="10">
         <v>45.4</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="15">
+      <c r="D31" s="10"/>
+      <c r="E31" s="6">
         <v>0.45</v>
       </c>
       <c r="I31" s="1"/>
@@ -1049,14 +1038,14 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="13">
+      <c r="B32" s="4">
         <v>3</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="10">
         <v>37.6</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="15">
+      <c r="D32" s="10"/>
+      <c r="E32" s="6">
         <v>0.5</v>
       </c>
       <c r="I32" s="1"/>
@@ -1065,14 +1054,14 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="13">
+      <c r="B33" s="4">
         <v>3</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="10">
         <v>30.6</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="15">
+      <c r="D33" s="10"/>
+      <c r="E33" s="6">
         <v>0.55000000000000004</v>
       </c>
       <c r="I33" s="1"/>
@@ -1081,632 +1070,582 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="13">
+      <c r="B34" s="4">
         <v>3</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="10">
         <v>25</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="15">
+      <c r="D34" s="10"/>
+      <c r="E34" s="6">
         <v>0.6</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="13">
+      <c r="B35" s="4">
         <v>3</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="10">
         <v>20.399999999999999</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="15">
+      <c r="D35" s="10"/>
+      <c r="E35" s="6">
         <v>0.65</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="14">
+      <c r="B36" s="5">
         <v>3</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="11">
         <v>16.399999999999999</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="16">
+      <c r="D36" s="11"/>
+      <c r="E36" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="12">
+      <c r="C37" s="14">
         <v>119</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="15">
+      <c r="D37" s="14"/>
+      <c r="E37" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="10">
         <v>90</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="15">
+      <c r="D38" s="10"/>
+      <c r="E38" s="6">
         <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="10">
         <v>70</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="15">
+      <c r="D39" s="10"/>
+      <c r="E39" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="4">
+      <c r="C40" s="10">
         <v>56</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="15">
+      <c r="D40" s="10"/>
+      <c r="E40" s="6">
         <v>0.35</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="4">
+      <c r="C41" s="10">
         <v>45.4</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="15">
+      <c r="D41" s="10"/>
+      <c r="E41" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="10">
         <v>37.299999999999997</v>
       </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="15">
+      <c r="D42" s="10"/>
+      <c r="E42" s="6">
         <v>0.45</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="10">
         <v>30.4</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="15">
+      <c r="D43" s="10"/>
+      <c r="E43" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C44" s="4">
+      <c r="C44" s="10">
         <v>25.1</v>
       </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="15">
+      <c r="D44" s="10"/>
+      <c r="E44" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="10">
         <v>20.6</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="15">
+      <c r="D45" s="10"/>
+      <c r="E45" s="6">
         <v>0.6</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C46" s="10">
         <v>16.7</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="15">
+      <c r="D46" s="10"/>
+      <c r="E46" s="6">
         <v>0.65</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="11">
         <v>13.4</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="16">
+      <c r="D47" s="11"/>
+      <c r="E47" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B48" s="17" t="s">
+      <c r="B48" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="14">
         <v>186</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="15">
+      <c r="D48" s="14"/>
+      <c r="E48" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="10">
         <v>140</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="15">
+      <c r="D49" s="10"/>
+      <c r="E49" s="6">
         <v>0.25</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C50" s="4">
+      <c r="C50" s="10">
         <v>110</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="15">
+      <c r="D50" s="10"/>
+      <c r="E50" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C51" s="4">
+      <c r="C51" s="10">
         <v>88</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="15">
+      <c r="D51" s="10"/>
+      <c r="E51" s="6">
         <v>0.35</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="4">
+      <c r="C52" s="10">
         <v>71</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="15">
+      <c r="D52" s="10"/>
+      <c r="E52" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="4">
+      <c r="C53" s="10">
         <v>58</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="15">
+      <c r="D53" s="10"/>
+      <c r="E53" s="6">
         <v>0.45</v>
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="4">
+      <c r="C54" s="10">
         <v>47.5</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="15">
+      <c r="D54" s="10"/>
+      <c r="E54" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="4">
+      <c r="C55" s="10">
         <v>39.1</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="15">
+      <c r="D55" s="10"/>
+      <c r="E55" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C56" s="4">
+      <c r="C56" s="10">
         <v>32</v>
       </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="15">
+      <c r="D56" s="10"/>
+      <c r="E56" s="6">
         <v>0.6</v>
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="4">
+      <c r="C57" s="10">
         <v>26</v>
       </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="15">
+      <c r="D57" s="10"/>
+      <c r="E57" s="6">
         <v>0.65</v>
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="11">
         <v>20.9</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="16">
+      <c r="D58" s="11"/>
+      <c r="E58" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="12">
+      <c r="C59" s="14">
         <v>26.6</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="15">
+      <c r="D59" s="14"/>
+      <c r="E59" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="10">
         <v>20</v>
       </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="15">
+      <c r="D60" s="10"/>
+      <c r="E60" s="6">
         <v>0.25</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="10">
         <v>14.7</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="15">
+      <c r="D61" s="10"/>
+      <c r="E61" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C62" s="4">
+      <c r="C62" s="10">
         <v>12.6</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="15">
+      <c r="D62" s="10"/>
+      <c r="E62" s="6">
         <v>0.35</v>
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="4">
+      <c r="C63" s="10">
         <v>10.199999999999999</v>
       </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="15">
+      <c r="D63" s="10"/>
+      <c r="E63" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C64" s="4">
+      <c r="C64" s="10">
         <v>8.4</v>
       </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="15">
+      <c r="D64" s="10"/>
+      <c r="E64" s="6">
         <v>0.45</v>
       </c>
     </row>
     <row r="65" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="4">
+      <c r="C65" s="10">
         <v>6.9</v>
       </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="15">
+      <c r="D65" s="10"/>
+      <c r="E65" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C66" s="4">
+      <c r="C66" s="10">
         <v>5.6</v>
       </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="15">
+      <c r="D66" s="10"/>
+      <c r="E66" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="10">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="15">
+      <c r="D67" s="10"/>
+      <c r="E67" s="6">
         <v>0.6</v>
       </c>
     </row>
     <row r="68" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="10">
         <v>3.7</v>
       </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="15">
+      <c r="D68" s="10"/>
+      <c r="E68" s="6">
         <v>0.65</v>
       </c>
     </row>
     <row r="69" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="11">
         <v>3</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="16">
+      <c r="D69" s="11"/>
+      <c r="E69" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="12">
+      <c r="C70" s="14">
         <v>22.7</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="15">
+      <c r="D70" s="14"/>
+      <c r="E70" s="6">
         <v>0.2</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="10">
         <v>17</v>
       </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="15">
+      <c r="D71" s="10"/>
+      <c r="E71" s="6">
         <v>0.25</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C72" s="4">
+      <c r="C72" s="10">
         <v>13.3</v>
       </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="15">
+      <c r="D72" s="10"/>
+      <c r="E72" s="6">
         <v>0.3</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="10">
         <v>10.7</v>
       </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="15">
+      <c r="D73" s="10"/>
+      <c r="E73" s="6">
         <v>0.35</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D74" s="4"/>
-      <c r="E74" s="15">
+      <c r="D74" s="10"/>
+      <c r="E74" s="6">
         <v>0.4</v>
       </c>
     </row>
     <row r="75" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="10">
         <v>7.1</v>
       </c>
-      <c r="D75" s="4"/>
-      <c r="E75" s="15">
+      <c r="D75" s="10"/>
+      <c r="E75" s="6">
         <v>0.45</v>
       </c>
     </row>
     <row r="76" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="4">
+      <c r="C76" s="10">
         <v>5.8</v>
       </c>
-      <c r="D76" s="4"/>
-      <c r="E76" s="15">
+      <c r="D76" s="10"/>
+      <c r="E76" s="6">
         <v>0.5</v>
       </c>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C77" s="4">
+      <c r="C77" s="10">
         <v>4.8</v>
       </c>
-      <c r="D77" s="4"/>
-      <c r="E77" s="15">
+      <c r="D77" s="10"/>
+      <c r="E77" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C78" s="4">
+      <c r="C78" s="10">
         <v>3.9</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="15">
+      <c r="D78" s="10"/>
+      <c r="E78" s="6">
         <v>0.6</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="4">
+      <c r="C79" s="10">
         <v>3.2</v>
       </c>
-      <c r="D79" s="4"/>
-      <c r="E79" s="15">
+      <c r="D79" s="10"/>
+      <c r="E79" s="6">
         <v>0.65</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="11">
         <v>2.5</v>
       </c>
-      <c r="D80" s="9"/>
-      <c r="E80" s="16">
+      <c r="D80" s="11"/>
+      <c r="E80" s="7">
         <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C17:D17"/>
@@ -1723,19 +1662,69 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:D3"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="H3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H10:I10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
